--- a/input data/5. Графики на 05.18 АСУ.XLSX
+++ b/input data/5. Графики на 05.18 АСУ.XLSX
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="108" windowWidth="15120" windowHeight="8016" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="107. АСУ ТП" sheetId="4" r:id="rId1"/>
@@ -894,7 +894,7 @@
     <definedName name="эккона" localSheetId="2">#REF!</definedName>
     <definedName name="эккона">[3]Константы!$A$11</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2139,9 +2139,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2172,6 +2169,24 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2185,6 +2200,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2201,30 +2225,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="130">
@@ -9451,7 +9451,7 @@
   </sheetPr>
   <dimension ref="A1:AJ9"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -9467,11 +9467,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
       <c r="F1" s="43"/>
       <c r="G1" s="43"/>
       <c r="H1" s="43"/>
@@ -9479,54 +9479,54 @@
       <c r="J1" s="43"/>
       <c r="K1" s="43"/>
       <c r="L1" s="43"/>
-      <c r="M1" s="97" t="s">
+      <c r="M1" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="96"/>
+      <c r="P1" s="96"/>
+      <c r="Q1" s="96"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="96"/>
+      <c r="T1" s="96"/>
+      <c r="U1" s="96"/>
     </row>
     <row r="2" spans="1:36" s="76" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:36" s="76" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="98"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="98"/>
-      <c r="F3" s="98"/>
-      <c r="G3" s="98"/>
-      <c r="H3" s="98"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="98"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="98"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="98"/>
-      <c r="P3" s="98"/>
-      <c r="Q3" s="98"/>
-      <c r="R3" s="98"/>
-      <c r="S3" s="98"/>
-      <c r="T3" s="98"/>
-      <c r="U3" s="99" t="s">
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="99"/>
-      <c r="W3" s="99"/>
-      <c r="X3" s="99"/>
-      <c r="Z3" s="100" t="s">
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Z3" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="100"/>
-      <c r="AC3" s="100"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
       <c r="AF3" s="77"/>
       <c r="AG3" s="77"/>
       <c r="AH3" s="77"/>
@@ -9557,99 +9557,99 @@
       <c r="U4" s="78"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="90" t="s">
+      <c r="A5" s="100" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="90" t="s">
+      <c r="C5" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="90" t="s">
+      <c r="E5" s="100" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="91" t="s">
+      <c r="F5" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="92"/>
-      <c r="H5" s="92"/>
-      <c r="I5" s="92"/>
-      <c r="J5" s="92"/>
-      <c r="K5" s="92"/>
-      <c r="L5" s="92"/>
-      <c r="M5" s="92"/>
-      <c r="N5" s="92"/>
-      <c r="O5" s="92"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="92"/>
-      <c r="R5" s="92"/>
-      <c r="S5" s="92"/>
-      <c r="T5" s="92"/>
-      <c r="U5" s="92"/>
-      <c r="V5" s="92"/>
-      <c r="W5" s="92"/>
-      <c r="X5" s="92"/>
-      <c r="Y5" s="92"/>
-      <c r="Z5" s="92"/>
-      <c r="AA5" s="92"/>
-      <c r="AB5" s="92"/>
-      <c r="AC5" s="92"/>
-      <c r="AD5" s="92"/>
-      <c r="AE5" s="92"/>
-      <c r="AF5" s="92"/>
-      <c r="AG5" s="92"/>
-      <c r="AH5" s="92"/>
-      <c r="AI5" s="92"/>
-      <c r="AJ5" s="93"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91"/>
+      <c r="M5" s="91"/>
+      <c r="N5" s="91"/>
+      <c r="O5" s="91"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="91"/>
+      <c r="R5" s="91"/>
+      <c r="S5" s="91"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="91"/>
+      <c r="V5" s="91"/>
+      <c r="W5" s="91"/>
+      <c r="X5" s="91"/>
+      <c r="Y5" s="91"/>
+      <c r="Z5" s="91"/>
+      <c r="AA5" s="91"/>
+      <c r="AB5" s="91"/>
+      <c r="AC5" s="91"/>
+      <c r="AD5" s="91"/>
+      <c r="AE5" s="91"/>
+      <c r="AF5" s="91"/>
+      <c r="AG5" s="91"/>
+      <c r="AH5" s="91"/>
+      <c r="AI5" s="91"/>
+      <c r="AJ5" s="92"/>
     </row>
     <row r="6" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="95"/>
-      <c r="K6" s="95"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="95"/>
-      <c r="O6" s="95"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="95"/>
-      <c r="R6" s="95"/>
-      <c r="S6" s="95"/>
-      <c r="T6" s="95"/>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="95"/>
-      <c r="AC6" s="95"/>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="95"/>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="96"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="94"/>
+      <c r="N6" s="94"/>
+      <c r="O6" s="94"/>
+      <c r="P6" s="94"/>
+      <c r="Q6" s="94"/>
+      <c r="R6" s="94"/>
+      <c r="S6" s="94"/>
+      <c r="T6" s="94"/>
+      <c r="U6" s="94"/>
+      <c r="V6" s="94"/>
+      <c r="W6" s="94"/>
+      <c r="X6" s="94"/>
+      <c r="Y6" s="94"/>
+      <c r="Z6" s="94"/>
+      <c r="AA6" s="94"/>
+      <c r="AB6" s="94"/>
+      <c r="AC6" s="94"/>
+      <c r="AD6" s="94"/>
+      <c r="AE6" s="94"/>
+      <c r="AF6" s="94"/>
+      <c r="AG6" s="94"/>
+      <c r="AH6" s="94"/>
+      <c r="AI6" s="94"/>
+      <c r="AJ6" s="95"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="90"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
       <c r="F7" s="79">
         <v>1</v>
       </c>
@@ -9907,7 +9907,7 @@
   </sheetPr>
   <dimension ref="A1:AJ84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -9922,101 +9922,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="102" t="s">
+      <c r="E1" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
-      <c r="S1" s="104"/>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="104"/>
-      <c r="AA1" s="104"/>
-      <c r="AB1" s="104"/>
-      <c r="AC1" s="104"/>
-      <c r="AD1" s="104"/>
-      <c r="AE1" s="104"/>
-      <c r="AF1" s="104"/>
-      <c r="AG1" s="104"/>
-      <c r="AH1" s="104"/>
-      <c r="AI1" s="104"/>
-      <c r="AJ1" s="105"/>
+      <c r="G1" s="109"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="109"/>
+      <c r="N1" s="109"/>
+      <c r="O1" s="109"/>
+      <c r="P1" s="109"/>
+      <c r="Q1" s="109"/>
+      <c r="R1" s="109"/>
+      <c r="S1" s="109"/>
+      <c r="T1" s="109"/>
+      <c r="U1" s="109"/>
+      <c r="V1" s="109"/>
+      <c r="W1" s="109"/>
+      <c r="X1" s="109"/>
+      <c r="Y1" s="109"/>
+      <c r="Z1" s="109"/>
+      <c r="AA1" s="109"/>
+      <c r="AB1" s="109"/>
+      <c r="AC1" s="109"/>
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="109"/>
+      <c r="AG1" s="109"/>
+      <c r="AH1" s="109"/>
+      <c r="AI1" s="109"/>
+      <c r="AJ1" s="110"/>
     </row>
     <row r="2" spans="1:36" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="116" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="111" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="117"/>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="117"/>
-      <c r="AJ2" s="118"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
+      <c r="L2" s="112"/>
+      <c r="M2" s="112"/>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
+      <c r="S2" s="112"/>
+      <c r="T2" s="112"/>
+      <c r="U2" s="112"/>
+      <c r="V2" s="112"/>
+      <c r="W2" s="112"/>
+      <c r="X2" s="112"/>
+      <c r="Y2" s="112"/>
+      <c r="Z2" s="112"/>
+      <c r="AA2" s="112"/>
+      <c r="AB2" s="112"/>
+      <c r="AC2" s="112"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="112"/>
+      <c r="AF2" s="112"/>
+      <c r="AG2" s="112"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="112"/>
+      <c r="AJ2" s="113"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A3" s="101"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
+      <c r="A3" s="106"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
       <c r="F3" s="48">
         <v>1</v>
       </c>
@@ -11418,16 +11418,16 @@
       <c r="I28" s="59"/>
       <c r="J28" s="59"/>
       <c r="K28" s="59"/>
-      <c r="L28" s="110"/>
-      <c r="M28" s="110"/>
-      <c r="N28" s="110"/>
-      <c r="O28" s="110"/>
-      <c r="P28" s="110"/>
-      <c r="Q28" s="110"/>
-      <c r="R28" s="110"/>
-      <c r="S28" s="110"/>
-      <c r="T28" s="110"/>
-      <c r="U28" s="110"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="118"/>
+      <c r="Q28" s="118"/>
+      <c r="R28" s="118"/>
+      <c r="S28" s="118"/>
+      <c r="T28" s="118"/>
+      <c r="U28" s="118"/>
       <c r="V28" s="59"/>
       <c r="W28" s="59"/>
       <c r="X28" s="59"/>
@@ -11450,69 +11450,69 @@
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="64"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-      <c r="O29" s="106"/>
-      <c r="P29" s="106"/>
-      <c r="Q29" s="106"/>
-      <c r="R29" s="106"/>
-      <c r="S29" s="106"/>
-      <c r="T29" s="106"/>
-      <c r="U29" s="106"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="114"/>
+      <c r="P29" s="114"/>
+      <c r="Q29" s="114"/>
+      <c r="R29" s="114"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
     </row>
     <row r="30" spans="1:36" s="65" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="107"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="108"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="108"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
-      <c r="Q30" s="109"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="116"/>
+      <c r="E30" s="116"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="117"/>
+      <c r="N30" s="117"/>
+      <c r="O30" s="117"/>
+      <c r="P30" s="117"/>
+      <c r="Q30" s="117"/>
+      <c r="R30" s="117"/>
+      <c r="S30" s="117"/>
+      <c r="T30" s="117"/>
+      <c r="U30" s="117"/>
     </row>
     <row r="31" spans="1:36" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="107"/>
-      <c r="B31" s="108"/>
-      <c r="C31" s="108"/>
-      <c r="D31" s="108"/>
-      <c r="E31" s="108"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-      <c r="O31" s="106"/>
-      <c r="P31" s="106"/>
-      <c r="Q31" s="106"/>
-      <c r="R31" s="106"/>
-      <c r="S31" s="106"/>
-      <c r="T31" s="106"/>
-      <c r="U31" s="106"/>
+      <c r="A31" s="115"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="116"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="114"/>
+      <c r="P31" s="114"/>
+      <c r="Q31" s="114"/>
+      <c r="R31" s="114"/>
+      <c r="S31" s="114"/>
+      <c r="T31" s="114"/>
+      <c r="U31" s="114"/>
     </row>
     <row r="32" spans="1:36" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="107"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="116"/>
+      <c r="E32" s="116"/>
       <c r="F32" s="66"/>
       <c r="G32" s="66"/>
       <c r="H32" s="66"/>
@@ -11531,11 +11531,11 @@
       <c r="U32" s="68"/>
     </row>
     <row r="33" spans="1:21" s="65" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="107"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="116"/>
+      <c r="E33" s="116"/>
       <c r="F33" s="66"/>
       <c r="G33" s="66"/>
       <c r="H33" s="67"/>
@@ -11577,11 +11577,11 @@
       <c r="U34" s="71"/>
     </row>
     <row r="35" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="111"/>
-      <c r="B35" s="112"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
-      <c r="E35" s="114"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="104"/>
+      <c r="D35" s="104"/>
+      <c r="E35" s="105"/>
       <c r="F35" s="69"/>
       <c r="G35" s="69"/>
       <c r="H35" s="69"/>
@@ -11600,11 +11600,11 @@
       <c r="U35" s="69"/>
     </row>
     <row r="36" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="111"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
-      <c r="E36" s="114"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="105"/>
       <c r="F36" s="69"/>
       <c r="G36" s="69"/>
       <c r="H36" s="69"/>
@@ -11623,11 +11623,11 @@
       <c r="U36" s="69"/>
     </row>
     <row r="37" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="111"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="113"/>
-      <c r="E37" s="114"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="104"/>
+      <c r="D37" s="104"/>
+      <c r="E37" s="105"/>
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
       <c r="H37" s="69"/>
@@ -11646,11 +11646,11 @@
       <c r="U37" s="69"/>
     </row>
     <row r="38" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="111"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="113"/>
-      <c r="E38" s="114"/>
+      <c r="A38" s="102"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="105"/>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
       <c r="H38" s="69"/>
@@ -11669,11 +11669,11 @@
       <c r="U38" s="69"/>
     </row>
     <row r="39" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="111"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="113"/>
-      <c r="E39" s="114"/>
+      <c r="A39" s="102"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="104"/>
+      <c r="D39" s="104"/>
+      <c r="E39" s="105"/>
       <c r="F39" s="69"/>
       <c r="G39" s="69"/>
       <c r="H39" s="69"/>
@@ -11691,11 +11691,11 @@
       <c r="U39" s="69"/>
     </row>
     <row r="40" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="111"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="114"/>
+      <c r="A40" s="102"/>
+      <c r="B40" s="103"/>
+      <c r="C40" s="104"/>
+      <c r="D40" s="104"/>
+      <c r="E40" s="105"/>
       <c r="F40" s="69"/>
       <c r="G40" s="69"/>
       <c r="H40" s="69"/>
@@ -11714,11 +11714,11 @@
       <c r="U40" s="69"/>
     </row>
     <row r="41" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="111"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="113"/>
-      <c r="E41" s="114"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="103"/>
+      <c r="C41" s="104"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="105"/>
       <c r="F41" s="69"/>
       <c r="G41" s="69"/>
       <c r="H41" s="69"/>
@@ -11737,11 +11737,11 @@
       <c r="U41" s="69"/>
     </row>
     <row r="42" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="111"/>
-      <c r="B42" s="112"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="114"/>
+      <c r="A42" s="102"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="105"/>
       <c r="F42" s="69"/>
       <c r="G42" s="69"/>
       <c r="H42" s="69"/>
@@ -11760,11 +11760,11 @@
       <c r="U42" s="69"/>
     </row>
     <row r="43" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="111"/>
-      <c r="B43" s="112"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="114"/>
+      <c r="A43" s="102"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="104"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="105"/>
       <c r="F43" s="69"/>
       <c r="G43" s="69"/>
       <c r="H43" s="69"/>
@@ -11783,11 +11783,11 @@
       <c r="U43" s="69"/>
     </row>
     <row r="44" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="111"/>
-      <c r="B44" s="112"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="114"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="105"/>
       <c r="F44" s="69"/>
       <c r="G44" s="69"/>
       <c r="H44" s="69"/>
@@ -11806,11 +11806,11 @@
       <c r="U44" s="69"/>
     </row>
     <row r="45" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="111"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="114"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="105"/>
       <c r="F45" s="69"/>
       <c r="G45" s="69"/>
       <c r="H45" s="69"/>
@@ -11829,11 +11829,11 @@
       <c r="U45" s="69"/>
     </row>
     <row r="46" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="111"/>
-      <c r="B46" s="112"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="114"/>
+      <c r="A46" s="102"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="105"/>
       <c r="F46" s="69"/>
       <c r="G46" s="69"/>
       <c r="H46" s="69"/>
@@ -11852,11 +11852,11 @@
       <c r="U46" s="69"/>
     </row>
     <row r="47" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="111"/>
-      <c r="B47" s="112"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="114"/>
+      <c r="A47" s="102"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
       <c r="F47" s="69"/>
       <c r="G47" s="69"/>
       <c r="H47" s="69"/>
@@ -11875,11 +11875,11 @@
       <c r="U47" s="69"/>
     </row>
     <row r="48" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="111"/>
-      <c r="B48" s="112"/>
-      <c r="C48" s="113"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="114"/>
+      <c r="A48" s="102"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="105"/>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
       <c r="H48" s="69"/>
@@ -11898,11 +11898,11 @@
       <c r="U48" s="69"/>
     </row>
     <row r="49" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="111"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="113"/>
-      <c r="D49" s="113"/>
-      <c r="E49" s="114"/>
+      <c r="A49" s="102"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="105"/>
       <c r="F49" s="69"/>
       <c r="G49" s="69"/>
       <c r="H49" s="69"/>
@@ -11921,11 +11921,11 @@
       <c r="U49" s="69"/>
     </row>
     <row r="50" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="111"/>
-      <c r="B50" s="112"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
-      <c r="E50" s="114"/>
+      <c r="A50" s="102"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="105"/>
       <c r="F50" s="69"/>
       <c r="G50" s="69"/>
       <c r="H50" s="69"/>
@@ -11944,11 +11944,11 @@
       <c r="U50" s="69"/>
     </row>
     <row r="51" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="111"/>
-      <c r="B51" s="112"/>
-      <c r="C51" s="113"/>
-      <c r="D51" s="113"/>
-      <c r="E51" s="114"/>
+      <c r="A51" s="102"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="104"/>
+      <c r="D51" s="104"/>
+      <c r="E51" s="105"/>
       <c r="F51" s="69"/>
       <c r="G51" s="69"/>
       <c r="H51" s="69"/>
@@ -11967,11 +11967,11 @@
       <c r="U51" s="69"/>
     </row>
     <row r="52" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="111"/>
-      <c r="B52" s="112"/>
-      <c r="C52" s="113"/>
-      <c r="D52" s="113"/>
-      <c r="E52" s="114"/>
+      <c r="A52" s="102"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="105"/>
       <c r="F52" s="69"/>
       <c r="G52" s="69"/>
       <c r="H52" s="69"/>
@@ -11990,11 +11990,11 @@
       <c r="U52" s="69"/>
     </row>
     <row r="53" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="111"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
-      <c r="E53" s="114"/>
+      <c r="A53" s="102"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="105"/>
       <c r="F53" s="69"/>
       <c r="G53" s="69"/>
       <c r="H53" s="69"/>
@@ -12013,11 +12013,11 @@
       <c r="U53" s="69"/>
     </row>
     <row r="54" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="111"/>
-      <c r="B54" s="112"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
-      <c r="E54" s="114"/>
+      <c r="A54" s="102"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="104"/>
+      <c r="D54" s="104"/>
+      <c r="E54" s="105"/>
       <c r="F54" s="69"/>
       <c r="G54" s="69"/>
       <c r="H54" s="69"/>
@@ -12036,11 +12036,11 @@
       <c r="U54" s="69"/>
     </row>
     <row r="55" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="111"/>
-      <c r="B55" s="112"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
-      <c r="E55" s="114"/>
+      <c r="A55" s="102"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="105"/>
       <c r="F55" s="69"/>
       <c r="G55" s="69"/>
       <c r="H55" s="69"/>
@@ -12059,11 +12059,11 @@
       <c r="U55" s="69"/>
     </row>
     <row r="56" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="111"/>
-      <c r="B56" s="112"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
-      <c r="E56" s="114"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="104"/>
+      <c r="D56" s="104"/>
+      <c r="E56" s="105"/>
       <c r="F56" s="69"/>
       <c r="G56" s="69"/>
       <c r="H56" s="69"/>
@@ -12082,11 +12082,11 @@
       <c r="U56" s="69"/>
     </row>
     <row r="57" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="111"/>
-      <c r="B57" s="112"/>
-      <c r="C57" s="113"/>
-      <c r="D57" s="113"/>
-      <c r="E57" s="114"/>
+      <c r="A57" s="102"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="104"/>
+      <c r="D57" s="104"/>
+      <c r="E57" s="105"/>
       <c r="F57" s="69"/>
       <c r="G57" s="69"/>
       <c r="H57" s="69"/>
@@ -12105,11 +12105,11 @@
       <c r="U57" s="69"/>
     </row>
     <row r="58" spans="1:21" s="72" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="111"/>
-      <c r="B58" s="112"/>
-      <c r="C58" s="113"/>
-      <c r="D58" s="113"/>
-      <c r="E58" s="114"/>
+      <c r="A58" s="102"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="105"/>
       <c r="F58" s="69"/>
       <c r="G58" s="69"/>
       <c r="H58" s="69"/>
@@ -12128,11 +12128,11 @@
       <c r="U58" s="69"/>
     </row>
     <row r="59" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="111"/>
-      <c r="B59" s="112"/>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="114"/>
+      <c r="A59" s="102"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="105"/>
       <c r="F59" s="69"/>
       <c r="G59" s="69"/>
       <c r="H59" s="69"/>
@@ -12151,11 +12151,11 @@
       <c r="U59" s="69"/>
     </row>
     <row r="60" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="111"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="113"/>
-      <c r="D60" s="113"/>
-      <c r="E60" s="114"/>
+      <c r="A60" s="102"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="105"/>
       <c r="F60" s="69"/>
       <c r="G60" s="69"/>
       <c r="H60" s="69"/>
@@ -12174,11 +12174,11 @@
       <c r="U60" s="69"/>
     </row>
     <row r="61" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="111"/>
-      <c r="B61" s="112"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="114"/>
+      <c r="A61" s="102"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="105"/>
       <c r="F61" s="69"/>
       <c r="G61" s="69"/>
       <c r="H61" s="69"/>
@@ -12197,11 +12197,11 @@
       <c r="U61" s="69"/>
     </row>
     <row r="62" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="111"/>
-      <c r="B62" s="112"/>
-      <c r="C62" s="113"/>
-      <c r="D62" s="113"/>
-      <c r="E62" s="114"/>
+      <c r="A62" s="102"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="105"/>
       <c r="F62" s="69"/>
       <c r="G62" s="69"/>
       <c r="H62" s="69"/>
@@ -12220,11 +12220,11 @@
       <c r="U62" s="69"/>
     </row>
     <row r="63" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="111"/>
-      <c r="B63" s="112"/>
-      <c r="C63" s="113"/>
-      <c r="D63" s="113"/>
-      <c r="E63" s="114"/>
+      <c r="A63" s="102"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="104"/>
+      <c r="D63" s="104"/>
+      <c r="E63" s="105"/>
       <c r="F63" s="69"/>
       <c r="G63" s="69"/>
       <c r="H63" s="69"/>
@@ -12243,11 +12243,11 @@
       <c r="U63" s="69"/>
     </row>
     <row r="64" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="111"/>
-      <c r="B64" s="112"/>
-      <c r="C64" s="113"/>
-      <c r="D64" s="113"/>
-      <c r="E64" s="114"/>
+      <c r="A64" s="102"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="105"/>
       <c r="F64" s="69"/>
       <c r="G64" s="69"/>
       <c r="H64" s="69"/>
@@ -12266,11 +12266,11 @@
       <c r="U64" s="69"/>
     </row>
     <row r="65" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="111"/>
-      <c r="B65" s="112"/>
-      <c r="C65" s="113"/>
-      <c r="D65" s="113"/>
-      <c r="E65" s="114"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="104"/>
+      <c r="D65" s="104"/>
+      <c r="E65" s="105"/>
       <c r="F65" s="69"/>
       <c r="G65" s="69"/>
       <c r="H65" s="69"/>
@@ -12289,11 +12289,11 @@
       <c r="U65" s="69"/>
     </row>
     <row r="66" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="111"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="113"/>
-      <c r="D66" s="113"/>
-      <c r="E66" s="114"/>
+      <c r="A66" s="102"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="104"/>
+      <c r="D66" s="104"/>
+      <c r="E66" s="105"/>
       <c r="F66" s="69"/>
       <c r="G66" s="69"/>
       <c r="H66" s="69"/>
@@ -12312,11 +12312,11 @@
       <c r="U66" s="69"/>
     </row>
     <row r="67" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="111"/>
-      <c r="B67" s="112"/>
-      <c r="C67" s="113"/>
-      <c r="D67" s="113"/>
-      <c r="E67" s="114"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="104"/>
+      <c r="D67" s="104"/>
+      <c r="E67" s="105"/>
       <c r="F67" s="69"/>
       <c r="G67" s="69"/>
       <c r="H67" s="69"/>
@@ -12335,11 +12335,11 @@
       <c r="U67" s="69"/>
     </row>
     <row r="68" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="111"/>
-      <c r="B68" s="112"/>
-      <c r="C68" s="113"/>
-      <c r="D68" s="113"/>
-      <c r="E68" s="114"/>
+      <c r="A68" s="102"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="105"/>
       <c r="F68" s="69"/>
       <c r="G68" s="69"/>
       <c r="H68" s="69"/>
@@ -12358,11 +12358,11 @@
       <c r="U68" s="69"/>
     </row>
     <row r="69" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="111"/>
-      <c r="B69" s="112"/>
-      <c r="C69" s="113"/>
-      <c r="D69" s="113"/>
-      <c r="E69" s="114"/>
+      <c r="A69" s="102"/>
+      <c r="B69" s="103"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="105"/>
       <c r="F69" s="69"/>
       <c r="G69" s="69"/>
       <c r="H69" s="69"/>
@@ -12381,11 +12381,11 @@
       <c r="U69" s="69"/>
     </row>
     <row r="70" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="111"/>
-      <c r="B70" s="112"/>
-      <c r="C70" s="113"/>
-      <c r="D70" s="113"/>
-      <c r="E70" s="114"/>
+      <c r="A70" s="102"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="104"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="105"/>
       <c r="F70" s="69"/>
       <c r="G70" s="69"/>
       <c r="H70" s="69"/>
@@ -12404,11 +12404,11 @@
       <c r="U70" s="69"/>
     </row>
     <row r="71" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="111"/>
-      <c r="B71" s="112"/>
-      <c r="C71" s="113"/>
-      <c r="D71" s="113"/>
-      <c r="E71" s="114"/>
+      <c r="A71" s="102"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="105"/>
       <c r="F71" s="69"/>
       <c r="G71" s="69"/>
       <c r="H71" s="69"/>
@@ -12426,11 +12426,11 @@
       <c r="U71" s="69"/>
     </row>
     <row r="72" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="111"/>
-      <c r="B72" s="112"/>
-      <c r="C72" s="113"/>
-      <c r="D72" s="113"/>
-      <c r="E72" s="114"/>
+      <c r="A72" s="102"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="105"/>
       <c r="F72" s="69"/>
       <c r="G72" s="69"/>
       <c r="H72" s="69"/>
@@ -12449,11 +12449,11 @@
       <c r="U72" s="69"/>
     </row>
     <row r="73" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="111"/>
-      <c r="B73" s="112"/>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
-      <c r="E73" s="114"/>
+      <c r="A73" s="102"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="104"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="105"/>
       <c r="F73" s="69"/>
       <c r="G73" s="69"/>
       <c r="H73" s="69"/>
@@ -12471,11 +12471,11 @@
       <c r="U73" s="69"/>
     </row>
     <row r="74" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="111"/>
-      <c r="B74" s="112"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="113"/>
-      <c r="E74" s="114"/>
+      <c r="A74" s="102"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="105"/>
       <c r="F74" s="69"/>
       <c r="G74" s="69"/>
       <c r="H74" s="69"/>
@@ -12494,11 +12494,11 @@
       <c r="U74" s="69"/>
     </row>
     <row r="75" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="111"/>
-      <c r="B75" s="112"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="113"/>
-      <c r="E75" s="114"/>
+      <c r="A75" s="102"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="104"/>
+      <c r="D75" s="104"/>
+      <c r="E75" s="105"/>
       <c r="F75" s="69"/>
       <c r="G75" s="69"/>
       <c r="H75" s="69"/>
@@ -12517,11 +12517,11 @@
       <c r="U75" s="69"/>
     </row>
     <row r="76" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="111"/>
-      <c r="B76" s="112"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="113"/>
-      <c r="E76" s="114"/>
+      <c r="A76" s="102"/>
+      <c r="B76" s="103"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="105"/>
       <c r="F76" s="69"/>
       <c r="G76" s="69"/>
       <c r="H76" s="69"/>
@@ -12540,11 +12540,11 @@
       <c r="U76" s="69"/>
     </row>
     <row r="77" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="111"/>
-      <c r="B77" s="112"/>
-      <c r="C77" s="113"/>
-      <c r="D77" s="113"/>
-      <c r="E77" s="114"/>
+      <c r="A77" s="102"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="104"/>
+      <c r="D77" s="104"/>
+      <c r="E77" s="105"/>
       <c r="F77" s="69"/>
       <c r="G77" s="69"/>
       <c r="H77" s="69"/>
@@ -12563,11 +12563,11 @@
       <c r="U77" s="69"/>
     </row>
     <row r="78" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="111"/>
-      <c r="B78" s="112"/>
-      <c r="C78" s="113"/>
-      <c r="D78" s="113"/>
-      <c r="E78" s="114"/>
+      <c r="A78" s="102"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="104"/>
+      <c r="D78" s="104"/>
+      <c r="E78" s="105"/>
       <c r="F78" s="69"/>
       <c r="G78" s="69"/>
       <c r="H78" s="69"/>
@@ -12586,11 +12586,11 @@
       <c r="U78" s="69"/>
     </row>
     <row r="79" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="111"/>
-      <c r="B79" s="112"/>
-      <c r="C79" s="113"/>
-      <c r="D79" s="113"/>
-      <c r="E79" s="114"/>
+      <c r="A79" s="102"/>
+      <c r="B79" s="103"/>
+      <c r="C79" s="104"/>
+      <c r="D79" s="104"/>
+      <c r="E79" s="105"/>
       <c r="F79" s="69"/>
       <c r="G79" s="69"/>
       <c r="H79" s="69"/>
@@ -12609,11 +12609,11 @@
       <c r="U79" s="69"/>
     </row>
     <row r="80" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="111"/>
-      <c r="B80" s="112"/>
-      <c r="C80" s="113"/>
-      <c r="D80" s="113"/>
-      <c r="E80" s="114"/>
+      <c r="A80" s="102"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="105"/>
       <c r="F80" s="69"/>
       <c r="G80" s="69"/>
       <c r="H80" s="69"/>
@@ -12632,11 +12632,11 @@
       <c r="U80" s="69"/>
     </row>
     <row r="81" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="111"/>
-      <c r="B81" s="112"/>
-      <c r="C81" s="113"/>
-      <c r="D81" s="113"/>
-      <c r="E81" s="114"/>
+      <c r="A81" s="102"/>
+      <c r="B81" s="103"/>
+      <c r="C81" s="104"/>
+      <c r="D81" s="104"/>
+      <c r="E81" s="105"/>
       <c r="F81" s="69"/>
       <c r="G81" s="69"/>
       <c r="H81" s="69"/>
@@ -12654,11 +12654,11 @@
       <c r="U81" s="69"/>
     </row>
     <row r="82" spans="1:21" s="65" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="111"/>
-      <c r="B82" s="112"/>
-      <c r="C82" s="113"/>
-      <c r="D82" s="113"/>
-      <c r="E82" s="114"/>
+      <c r="A82" s="102"/>
+      <c r="B82" s="103"/>
+      <c r="C82" s="104"/>
+      <c r="D82" s="104"/>
+      <c r="E82" s="105"/>
       <c r="F82" s="69"/>
       <c r="G82" s="69"/>
       <c r="H82" s="69"/>
@@ -12678,16 +12678,16 @@
     </row>
     <row r="83" spans="1:21" s="65" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C83" s="73"/>
-      <c r="L83" s="115"/>
-      <c r="M83" s="115"/>
-      <c r="N83" s="115"/>
-      <c r="O83" s="115"/>
-      <c r="P83" s="115"/>
-      <c r="Q83" s="115"/>
-      <c r="R83" s="115"/>
-      <c r="S83" s="115"/>
-      <c r="T83" s="115"/>
-      <c r="U83" s="115"/>
+      <c r="L83" s="101"/>
+      <c r="M83" s="101"/>
+      <c r="N83" s="101"/>
+      <c r="O83" s="101"/>
+      <c r="P83" s="101"/>
+      <c r="Q83" s="101"/>
+      <c r="R83" s="101"/>
+      <c r="S83" s="101"/>
+      <c r="T83" s="101"/>
+      <c r="U83" s="101"/>
     </row>
     <row r="84" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="L84" s="75"/>
@@ -12703,127 +12703,6 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="L83:U83"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="D81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="D75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:C74"/>
-    <mergeCell ref="D73:D74"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="D67:D68"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:C70"/>
-    <mergeCell ref="D69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="D63:D64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="D57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C3"/>
@@ -12840,6 +12719,127 @@
     <mergeCell ref="F30:U30"/>
     <mergeCell ref="F31:U31"/>
     <mergeCell ref="L28:U28"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="D63:D64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="D75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="L83:U83"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
   </mergeCells>
   <conditionalFormatting sqref="S5:V5 F28:U1048576 F3:AI3 F1:F2 F4:H4 U27:AF27 AJ27 F5:I6 P9:U9 F12:O12 F14:S14 F13:N13 P13:R13 F15:T15 W16:AC16 F16:U16 X17:AB17 F17:V17 Z19:AC19 AB21:AG21 Z21 AC22:AI22 Z22:AA22 AD23:AJ23 AG25:AJ26 M4:U4 M11:P11 L6:N6 S6:W6 M7:N7 Q7:U7 T13:V13 U14:W14 Z13:AA14 AB15:AC15 Z18:AD18 AA20:AC20 AG20:AJ20 F18:T23 F25:T27 F24:R24 AG24 F7:K11 L10:L11 Q10:T10 V10:AJ10 O10 S12:W12 U18:Y22 U23:AB23 T24:AC24 U25:AD26 Q11:R12 L8:M9 J4:K6 Q5:R6 N8:U8 O6:P7 S11:Y11 V15:Z15 AD19:AD20 N9:N10 L5:O5">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
